--- a/biology/Zoologie/Eugeneodontida/Eugeneodontida.xlsx
+++ b/biology/Zoologie/Eugeneodontida/Eugeneodontida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Eugeneodontida ou Eugeneodontiformes forment un ordre éteint de poissons cartilagineux holocéphales caractérisé par une dentition insolite, qui sont apparus au début du Dévonien, il y a environ 407,7 millions d'années et qui ont disparu au début du Trias, il y a 247,2 millions d'années, survivant ainsi de l'extinction Permien-Trias[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eugeneodontida ou Eugeneodontiformes forment un ordre éteint de poissons cartilagineux holocéphales caractérisé par une dentition insolite, qui sont apparus au début du Dévonien, il y a environ 407,7 millions d'années et qui ont disparu au début du Trias, il y a 247,2 millions d'années, survivant ainsi de l'extinction Permien-Trias.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet ordre d'Holocéphales possédait des mâchoires de formes particulières : 
 la famille des Edestidae possédait une seule rangée de dents semblables à des scies ;
 les dents de la famille des Helicoprionidae formaient une sorte de scie circulaire ;
-les Caséodontoïdes possédaient des dents en forme de râpes, adaptées à un régime durophage[3].</t>
+les Caséodontoïdes possédaient des dents en forme de râpes, adaptées à un régime durophage.</t>
         </is>
       </c>
     </row>
